--- a/Updated_Java_Syllybus_Mode1 Java Freshers Curriculum _v3.1.xlsx
+++ b/Updated_Java_Syllybus_Mode1 Java Freshers Curriculum _v3.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15510" windowHeight="8205" tabRatio="863" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15510" windowHeight="8205" tabRatio="863" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Legends" sheetId="2" state="hidden" r:id="rId1"/>
@@ -823,31 +823,6 @@
     <t>SQL and JDBC</t>
   </si>
   <si>
-    <r>
-      <t>Static Code Analysis with</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CheckStyle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
     <t>Maven</t>
   </si>
   <si>
@@ -1112,12 +1087,15 @@
   <si>
     <t>Spring Core &amp; Spring MVC</t>
   </si>
+  <si>
+    <t xml:space="preserve">Static Code Analysis with CheckStyle, </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,14 +1250,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1475,7 +1459,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1729,9 +1713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1812,6 +1793,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1825,33 +1824,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1871,6 +1843,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2288,164 +2309,164 @@
         <v>207</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="140">
+      <c r="A2" s="136">
         <v>1</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="138" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="138">
+        <v>290</v>
+      </c>
+      <c r="D2" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="140"/>
-      <c r="B3" s="142"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="138"/>
       <c r="C3" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="130"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="136">
+        <v>2</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="138"/>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="140">
-        <v>2</v>
-      </c>
-      <c r="B4" s="142" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="130"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="136"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="138"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="130"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="136"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="138"/>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="140"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="130"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="136"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="138"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="140"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="130"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="136"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="138"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="140"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="130"/>
+    </row>
+    <row r="9" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A9" s="136"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="138"/>
-    </row>
-    <row r="9" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A9" s="140"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="130"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="136">
+        <v>3</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="138"/>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="140">
-        <v>3</v>
-      </c>
-      <c r="B10" s="142" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="136"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="140"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="138"/>
+      <c r="D11" s="130"/>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="140"/>
-      <c r="B12" s="142"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="130"/>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="140"/>
-      <c r="B13" s="142"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="130"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="136">
+        <v>4</v>
+      </c>
+      <c r="B14" s="138" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="130"/>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="138"/>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="140">
-        <v>4</v>
-      </c>
-      <c r="B14" s="142" t="s">
-        <v>310</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A15" s="140"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="16" t="s">
+      <c r="D16" s="130"/>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="138"/>
-    </row>
-    <row r="16" spans="1:4" ht="12" customHeight="1">
-      <c r="A16" s="140"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="138"/>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="140"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17" s="138"/>
+      <c r="D17" s="130"/>
     </row>
     <row r="18" spans="1:4" s="59" customFormat="1" ht="15">
       <c r="A18" s="16"/>
@@ -2511,138 +2532,138 @@
         <v>207</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A2" s="128">
+      <c r="A2" s="133">
         <v>1</v>
       </c>
-      <c r="B2" s="128" t="s">
-        <v>323</v>
+      <c r="B2" s="133" t="s">
+        <v>322</v>
       </c>
       <c r="C2" s="93" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="70" customFormat="1" ht="15">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="93" t="s">
+      <c r="D3" s="128"/>
+    </row>
+    <row r="4" spans="1:4" s="70" customFormat="1" ht="15">
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="133"/>
-    </row>
-    <row r="4" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A4" s="128"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="93" t="s">
+      <c r="D4" s="128"/>
+    </row>
+    <row r="5" spans="1:4" s="70" customFormat="1" ht="15">
+      <c r="A5" s="133"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="128"/>
+    </row>
+    <row r="6" spans="1:4" s="70" customFormat="1" ht="15">
+      <c r="A6" s="133"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="100" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="128"/>
+    </row>
+    <row r="7" spans="1:4" s="70" customFormat="1" ht="15">
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="133"/>
-    </row>
-    <row r="5" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="93" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="133"/>
-    </row>
-    <row r="6" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A6" s="128"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="133"/>
-    </row>
-    <row r="7" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A7" s="128"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A8" s="128">
+      <c r="A8" s="133">
         <v>2</v>
       </c>
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" s="143"/>
+      <c r="C8" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="139"/>
     </row>
     <row r="9" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A9" s="128"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="101" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" s="144"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="140"/>
     </row>
     <row r="10" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A10" s="132">
+      <c r="A10" s="127">
         <v>3</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="133" t="s">
         <v>220</v>
       </c>
       <c r="C10" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="127">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A11" s="133"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="133"/>
+        <v>302</v>
+      </c>
+      <c r="D11" s="128"/>
     </row>
     <row r="12" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A12" s="133"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" s="133"/>
+        <v>301</v>
+      </c>
+      <c r="D12" s="128"/>
     </row>
     <row r="13" spans="1:4" s="70" customFormat="1" ht="15">
-      <c r="A13" s="134"/>
-      <c r="B13" s="113" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="112" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="D13" s="134"/>
+      <c r="D13" s="129"/>
     </row>
     <row r="14" spans="1:4" s="70" customFormat="1" ht="15">
       <c r="A14" s="88">
         <v>5</v>
       </c>
       <c r="B14" s="88"/>
-      <c r="C14" s="109" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" s="110">
+      <c r="C14" s="108" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="109">
         <v>3</v>
       </c>
     </row>
@@ -2657,10 +2678,10 @@
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="59"/>
       <c r="B16" s="59"/>
-      <c r="C16" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="D16" s="108">
+      <c r="C16" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="107">
         <f>SUM(D2:D14)</f>
         <v>12</v>
       </c>
@@ -2744,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="16"/>
     </row>
@@ -5870,7 +5891,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="36" t="s">
@@ -5884,7 +5905,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="124"/>
+      <c r="A2" s="123"/>
       <c r="B2" s="36" t="s">
         <v>73</v>
       </c>
@@ -5896,7 +5917,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="124"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="36" t="s">
         <v>74</v>
       </c>
@@ -5908,7 +5929,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="124"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="36" t="s">
         <v>75</v>
       </c>
@@ -5920,7 +5941,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="124"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="37" t="s">
         <v>76</v>
       </c>
@@ -5932,7 +5953,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="124"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="38" t="s">
         <v>0</v>
       </c>
@@ -5944,7 +5965,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="124"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="38" t="s">
         <v>77</v>
       </c>
@@ -5956,7 +5977,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="125"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="36" t="s">
         <v>78</v>
       </c>
@@ -5968,7 +5989,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="122" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -5982,7 +6003,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="124"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="7" t="s">
         <v>81</v>
       </c>
@@ -5994,7 +6015,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="124"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="7" t="s">
         <v>82</v>
       </c>
@@ -6006,7 +6027,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="124"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="39" t="s">
         <v>83</v>
       </c>
@@ -6015,7 +6036,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="124"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="7" t="s">
         <v>84</v>
       </c>
@@ -6024,7 +6045,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="124"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="7" t="s">
         <v>85</v>
       </c>
@@ -6033,7 +6054,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="124"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="7" t="s">
         <v>86</v>
       </c>
@@ -6042,7 +6063,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="124"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="7" t="s">
         <v>87</v>
       </c>
@@ -6051,7 +6072,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="125"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="7" t="s">
         <v>88</v>
       </c>
@@ -6060,7 +6081,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="122" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -6071,7 +6092,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="124"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="7" t="s">
         <v>91</v>
       </c>
@@ -6083,37 +6104,37 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="124"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="124"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="124"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="124"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="124"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="125"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="7" t="s">
         <v>88</v>
       </c>
@@ -6122,7 +6143,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>97</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -6133,26 +6154,26 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="121"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="121"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="122"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" s="123" t="s">
+      <c r="A30" s="122" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6163,7 +6184,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="124"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="7" t="s">
         <v>103</v>
       </c>
@@ -6172,7 +6193,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="124"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="7" t="s">
         <v>104</v>
       </c>
@@ -6181,7 +6202,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="A33" s="124"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="7" t="s">
         <v>105</v>
       </c>
@@ -6190,7 +6211,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="124"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="7" t="s">
         <v>106</v>
       </c>
@@ -6199,7 +6220,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="124"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="7" t="s">
         <v>107</v>
       </c>
@@ -6208,7 +6229,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="124"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="7" t="s">
         <v>108</v>
       </c>
@@ -6217,7 +6238,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="124"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="7" t="s">
         <v>109</v>
       </c>
@@ -6226,7 +6247,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="124"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="7" t="s">
         <v>110</v>
       </c>
@@ -6235,7 +6256,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="125"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="7" t="s">
         <v>111</v>
       </c>
@@ -6259,8 +6280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6294,9 +6315,9 @@
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="99">
+        <v>310</v>
+      </c>
+      <c r="D6" s="98">
         <v>1</v>
       </c>
     </row>
@@ -6310,7 +6331,7 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D8" s="64">
         <v>4</v>
@@ -6318,7 +6339,7 @@
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D9" s="64">
         <v>3</v>
@@ -6326,7 +6347,7 @@
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" s="64">
         <v>5</v>
@@ -6336,13 +6357,13 @@
       <c r="C11" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="114">
+      <c r="D11" s="113">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D12" s="82">
         <v>1</v>
@@ -6350,7 +6371,7 @@
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D13" s="82">
         <v>3</v>
@@ -6386,8 +6407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6409,13 +6430,13 @@
         <v>207</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>209</v>
@@ -6430,61 +6451,61 @@
       <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="138">
+      <c r="A2" s="130">
         <v>1</v>
       </c>
-      <c r="B2" s="131" t="s">
-        <v>265</v>
+      <c r="B2" s="126" t="s">
+        <v>264</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="130">
+      <c r="D2" s="125">
         <v>1</v>
       </c>
-      <c r="E2" s="129">
+      <c r="E2" s="134">
         <v>3</v>
       </c>
-      <c r="F2" s="128">
+      <c r="F2" s="133">
         <v>3</v>
       </c>
-      <c r="G2" s="128">
+      <c r="G2" s="133">
         <f>SUM(E2:F4)</f>
         <v>6</v>
       </c>
-      <c r="H2" s="126"/>
+      <c r="H2" s="131"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="138"/>
-      <c r="B3" s="131"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="127"/>
+        <v>251</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="132"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="138"/>
-      <c r="B4" s="131"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="127"/>
+        <v>265</v>
+      </c>
+      <c r="D4" s="125"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="132"/>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="138"/>
-      <c r="B5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="130"/>
+        <v>254</v>
+      </c>
+      <c r="D5" s="125"/>
       <c r="E5" s="94">
         <v>2</v>
       </c>
@@ -6498,12 +6519,12 @@
       <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:9" s="59" customFormat="1">
-      <c r="A6" s="138"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="130"/>
+        <v>266</v>
+      </c>
+      <c r="D6" s="125"/>
       <c r="E6" s="94"/>
       <c r="F6" s="84"/>
       <c r="G6" s="84"/>
@@ -6517,9 +6538,9 @@
         <v>210</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="98">
+        <v>257</v>
+      </c>
+      <c r="D7" s="97">
         <v>1</v>
       </c>
       <c r="E7" s="94"/>
@@ -6535,9 +6556,9 @@
         <v>211</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="98">
+        <v>256</v>
+      </c>
+      <c r="D8" s="97">
         <v>1</v>
       </c>
       <c r="E8" s="94"/>
@@ -6553,9 +6574,9 @@
         <v>212</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="130">
+        <v>255</v>
+      </c>
+      <c r="D9" s="125">
         <v>0.5</v>
       </c>
       <c r="E9" s="94"/>
@@ -6563,33 +6584,33 @@
       <c r="G9" s="84"/>
       <c r="H9" s="86"/>
     </row>
-    <row r="10" spans="1:9" s="59" customFormat="1">
-      <c r="A10" s="96">
+    <row r="10" spans="1:9" s="147" customFormat="1">
+      <c r="A10" s="142">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="143" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="144" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="86"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="146"/>
     </row>
     <row r="11" spans="1:9" s="59" customFormat="1" ht="30">
       <c r="A11" s="88">
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="98">
+        <v>258</v>
+      </c>
+      <c r="D11" s="97">
         <v>1</v>
       </c>
       <c r="E11" s="94"/>
@@ -6607,7 +6628,7 @@
       <c r="C12" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="97">
         <v>1</v>
       </c>
       <c r="E12" s="94">
@@ -6627,12 +6648,12 @@
         <v>8</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="98">
+        <v>261</v>
+      </c>
+      <c r="D13" s="97">
         <v>2</v>
       </c>
       <c r="E13" s="94">
@@ -6648,131 +6669,131 @@
       <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:9" s="59" customFormat="1" ht="30">
-      <c r="A14" s="113">
+      <c r="A14" s="112">
         <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>215</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="112">
+        <v>260</v>
+      </c>
+      <c r="D14" s="111">
         <v>1</v>
       </c>
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
       <c r="G14" s="76"/>
-      <c r="H14" s="119"/>
-    </row>
-    <row r="15" spans="1:9" s="59" customFormat="1" ht="30">
-      <c r="A15" s="113">
+      <c r="H14" s="118"/>
+    </row>
+    <row r="15" spans="1:9" s="147" customFormat="1" ht="30">
+      <c r="A15" s="142">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="112">
+      <c r="C15" s="144" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="148">
         <v>0.5</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="119"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
     </row>
     <row r="16" spans="1:9" s="59" customFormat="1">
-      <c r="A16" s="111">
+      <c r="A16" s="110">
         <v>11</v>
       </c>
-      <c r="B16" s="116" t="s">
-        <v>314</v>
+      <c r="B16" s="115" t="s">
+        <v>313</v>
       </c>
       <c r="C16" s="80"/>
-      <c r="D16" s="112">
+      <c r="D16" s="111">
         <v>1</v>
       </c>
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
       <c r="G16" s="76"/>
-      <c r="H16" s="119"/>
+      <c r="H16" s="118"/>
     </row>
     <row r="17" spans="1:8" s="59" customFormat="1">
-      <c r="A17" s="111">
+      <c r="A17" s="110">
         <v>12</v>
       </c>
-      <c r="B17" s="116" t="s">
-        <v>313</v>
+      <c r="B17" s="115" t="s">
+        <v>312</v>
       </c>
       <c r="C17" s="80"/>
-      <c r="D17" s="112">
+      <c r="D17" s="111">
         <v>1</v>
       </c>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="G17" s="76"/>
-      <c r="H17" s="119"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="1:8" s="59" customFormat="1">
-      <c r="A18" s="132">
+      <c r="A18" s="151">
         <v>13</v>
       </c>
-      <c r="B18" s="135" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18" s="130">
+      <c r="B18" s="152" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="125">
         <v>1</v>
       </c>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76"/>
-      <c r="H18" s="119"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="1:8" s="59" customFormat="1">
-      <c r="A19" s="133"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="130"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="153" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="125"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
-      <c r="H19" s="119"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="1:8" s="59" customFormat="1">
-      <c r="A20" s="133"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="D20" s="130"/>
+      <c r="A20" s="154"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="153" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="125"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="76"/>
-      <c r="H20" s="119"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="1:8" s="59" customFormat="1">
-      <c r="A21" s="134"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="130"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="158" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="125"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="76"/>
-      <c r="H21" s="119"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="1:8" s="59" customFormat="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="107" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="106" t="s">
         <v>222</v>
       </c>
       <c r="D22" s="73"/>
@@ -6782,10 +6803,10 @@
       <c r="H22" s="56"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D23" s="95">
         <f>SUM(D2:D22)</f>
@@ -6806,17 +6827,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D2:D6"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="D2:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6850,13 +6871,13 @@
         <v>207</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>209</v>
@@ -6871,46 +6892,46 @@
       <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="128">
+      <c r="A2" s="133">
         <v>11</v>
       </c>
-      <c r="B2" s="139" t="s">
-        <v>268</v>
+      <c r="B2" s="135" t="s">
+        <v>267</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="130">
+        <v>250</v>
+      </c>
+      <c r="D2" s="125">
         <v>1</v>
       </c>
-      <c r="E2" s="129">
+      <c r="E2" s="134">
         <v>4</v>
       </c>
-      <c r="F2" s="128">
+      <c r="F2" s="133">
         <v>4</v>
       </c>
-      <c r="G2" s="132">
+      <c r="G2" s="127">
         <f>SUM(E2:F3)</f>
         <v>8</v>
       </c>
       <c r="H2" s="91"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="128"/>
-      <c r="B3" s="139"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="133"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="55"/>
       <c r="C4" s="95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" s="95">
         <f>SUM(D2:D3)</f>
@@ -6965,104 +6986,104 @@
         <v>207</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="130">
+        <v>1</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="138">
+      <c r="D2" s="130">
         <v>1</v>
       </c>
-      <c r="B2" s="138" t="s">
+    </row>
+    <row r="3" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="130"/>
+    </row>
+    <row r="4" spans="1:4" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="130"/>
+    </row>
+    <row r="5" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A5" s="130">
+        <v>2</v>
+      </c>
+      <c r="B5" s="130" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="138">
+      <c r="C5" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="130">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="138"/>
-    </row>
-    <row r="4" spans="1:4" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="138"/>
-    </row>
-    <row r="5" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A5" s="138">
-        <v>2</v>
-      </c>
-      <c r="B5" s="138" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="16" t="s">
+    <row r="6" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="138">
+      <c r="D6" s="130"/>
+    </row>
+    <row r="7" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A7" s="136">
+        <v>3</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="130">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A6" s="138"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="138"/>
-    </row>
-    <row r="7" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A7" s="140">
-        <v>3</v>
-      </c>
-      <c r="B7" s="138" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="16" t="s">
+    <row r="8" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A8" s="136"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="130"/>
+    </row>
+    <row r="9" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A9" s="136"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A8" s="140"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="138"/>
-    </row>
-    <row r="9" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A9" s="140"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="130"/>
+    </row>
+    <row r="10" spans="1:4" s="59" customFormat="1" ht="15">
+      <c r="A10" s="136"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D9" s="138"/>
-    </row>
-    <row r="10" spans="1:4" s="59" customFormat="1" ht="15">
-      <c r="A10" s="140"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="130"/>
     </row>
     <row r="11" spans="1:4" s="59" customFormat="1" ht="15">
       <c r="A11" s="92"/>
@@ -7075,10 +7096,10 @@
     <row r="12" spans="1:4" s="59" customFormat="1">
       <c r="A12" s="92"/>
       <c r="B12" s="92"/>
-      <c r="C12" s="103" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="103">
+      <c r="C12" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="102">
         <f>SUM(D2:D10)</f>
         <v>3</v>
       </c>
@@ -7121,58 +7142,58 @@
         <v>207</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="117">
+      <c r="A2" s="116">
         <v>1</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="117" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="118" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="70" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="128">
+      <c r="A3" s="133">
         <v>2</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="137" t="s">
         <v>245</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="100">
+        <v>317</v>
+      </c>
+      <c r="D3" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="70" customFormat="1">
-      <c r="A4" s="128"/>
-      <c r="B4" s="141"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="70" customFormat="1">
-      <c r="A5" s="128"/>
-      <c r="B5" s="141"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="88">
         <v>1</v>
@@ -7187,12 +7208,12 @@
       <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:4" s="74" customFormat="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="105">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="104">
         <f>SUM(D2:D5)</f>
         <v>4</v>
       </c>
@@ -7212,18 +7233,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7341,14 +7362,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B30077F6-F210-4F06-AFDD-80824A31822E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2A18277-033F-4306-BB71-7D610628D48D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7359,6 +7372,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B30077F6-F210-4F06-AFDD-80824A31822E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
